--- a/Evaluation_Results.xlsx
+++ b/Evaluation_Results.xlsx
@@ -85,24 +85,7 @@
     <t xml:space="preserve">DomesticDeclarations</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4311</t>
-    </r>
+    <t xml:space="preserve">0.4311</t>
   </si>
   <si>
     <t xml:space="preserve">BPIC15_1</t>
@@ -130,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -175,12 +158,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -281,7 +258,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -471,7 +448,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
